--- a/Project/MSCI 435 Data.xlsx
+++ b/Project/MSCI 435 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefanno\Documents\MSCI 435\msci435\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF0ED2-6E59-427A-A759-4D952635BCBB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A260C7E4-8904-4502-A5A5-F7A7473D2EE2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="9024" xr2:uid="{34626F64-5F57-4DCA-A3DE-04B964B15F09}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>Code</t>
   </si>
@@ -88,6 +88,78 @@
   </si>
   <si>
     <t>Cohort2</t>
+  </si>
+  <si>
+    <t>311-a</t>
+  </si>
+  <si>
+    <t>311-b</t>
+  </si>
+  <si>
+    <t>334-a</t>
+  </si>
+  <si>
+    <t>402-a</t>
+  </si>
+  <si>
+    <t>423-a</t>
+  </si>
+  <si>
+    <t>431-a</t>
+  </si>
+  <si>
+    <t>433-a</t>
+  </si>
+  <si>
+    <t>435-a</t>
+  </si>
+  <si>
+    <t>436-a</t>
+  </si>
+  <si>
+    <t>442-a</t>
+  </si>
+  <si>
+    <t>444-a</t>
+  </si>
+  <si>
+    <t>454-a</t>
+  </si>
+  <si>
+    <t>541-a</t>
+  </si>
+  <si>
+    <t>334-b</t>
+  </si>
+  <si>
+    <t>402-b</t>
+  </si>
+  <si>
+    <t>423-b</t>
+  </si>
+  <si>
+    <t>431-b</t>
+  </si>
+  <si>
+    <t>433-b</t>
+  </si>
+  <si>
+    <t>435-b</t>
+  </si>
+  <si>
+    <t>436-b</t>
+  </si>
+  <si>
+    <t>442-b</t>
+  </si>
+  <si>
+    <t>444-b</t>
+  </si>
+  <si>
+    <t>454-b</t>
+  </si>
+  <si>
+    <t>541-b</t>
   </si>
 </sst>
 </file>
@@ -482,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E140EB0-1F40-4333-A8EF-D2C7472C4613}">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,10 +565,12 @@
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="28" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -519,40 +593,70 @@
         <v>311</v>
       </c>
       <c r="L1">
+        <v>311</v>
+      </c>
+      <c r="M1">
         <v>334</v>
       </c>
-      <c r="M1">
+      <c r="N1">
+        <v>334</v>
+      </c>
+      <c r="O1">
         <v>402</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>423</v>
       </c>
-      <c r="O1">
+      <c r="Q1">
+        <v>423</v>
+      </c>
+      <c r="R1">
         <v>431</v>
       </c>
-      <c r="P1">
+      <c r="S1">
+        <v>431</v>
+      </c>
+      <c r="T1">
         <v>433</v>
       </c>
-      <c r="Q1">
+      <c r="U1">
+        <v>433</v>
+      </c>
+      <c r="V1">
         <v>435</v>
       </c>
-      <c r="R1">
+      <c r="W1">
+        <v>435</v>
+      </c>
+      <c r="X1">
         <v>436</v>
       </c>
-      <c r="S1">
+      <c r="Y1">
+        <v>436</v>
+      </c>
+      <c r="Z1">
         <v>442</v>
       </c>
-      <c r="T1">
+      <c r="AA1">
+        <v>442</v>
+      </c>
+      <c r="AB1">
         <v>444</v>
       </c>
-      <c r="U1">
+      <c r="AC1">
+        <v>444</v>
+      </c>
+      <c r="AD1">
         <v>454</v>
       </c>
-      <c r="V1">
+      <c r="AE1">
         <v>541</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AF1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -593,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -605,10 +709,40 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>436</v>
       </c>
@@ -649,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -661,10 +795,40 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>444</v>
       </c>
@@ -693,40 +857,70 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>311</v>
       </c>
@@ -755,40 +949,70 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>334</v>
       </c>
@@ -820,25 +1044,25 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -846,8 +1070,38 @@
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>454</v>
       </c>
@@ -874,16 +1128,16 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -901,13 +1155,43 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>541</v>
       </c>
@@ -951,19 +1235,49 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>431</v>
       </c>
@@ -1004,25 +1318,55 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>442</v>
       </c>
@@ -1048,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1060,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1072,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -1080,8 +1424,38 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>300</v>
       </c>
@@ -1107,22 +1481,22 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1134,13 +1508,43 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1553,7 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:V13" si="0">CONCATENATE(L2, ", ")</f>
+        <f t="shared" ref="L13:AH13" si="0">CONCATENATE(L2, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="M13" t="str">
@@ -1165,35 +1569,75 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(P2, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(Q2, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R13" t="str">
         <f>CONCATENATE(R2, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(S2, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(T2, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(U2, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(V2, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="W13" t="str">
+        <f>CONCATENATE(W2, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="X13" t="str">
+        <f>CONCATENATE(X2, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="Y13" t="str">
+        <f>CONCATENATE(Y2, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="Z13" t="str">
+        <f>CONCATENATE(Z2, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AA13" t="str">
+        <f>CONCATENATE(AA2, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AB13" t="str">
+        <f>CONCATENATE(AB2, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AC13" t="str">
+        <f>CONCATENATE(AC2, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AD13" t="str">
+        <f>CONCATENATE(AD2, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AE13" t="str">
+        <f>CONCATENATE(AE2, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AF13" t="str">
+        <f>CONCATENATE(AF2, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ref="K14:V14" si="1">CONCATENATE(K3, ", ")</f>
+        <f t="shared" ref="K14:AH14" si="1">CONCATENATE(K3, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L14" t="str">
@@ -1221,35 +1665,75 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(P3, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(Q3, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(R3, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(S3, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(T3, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(U3, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">1, </v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(V3, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="W14" t="str">
+        <f>CONCATENATE(W3, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="X14" t="str">
+        <f>CONCATENATE(X3, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="Y14" t="str">
+        <f>CONCATENATE(Y3, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="Z14" t="str">
+        <f>CONCATENATE(Z3, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AA14" t="str">
+        <f>CONCATENATE(AA3, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AB14" t="str">
+        <f>CONCATENATE(AB3, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AC14" t="str">
+        <f>CONCATENATE(AC3, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AD14" t="str">
+        <f>CONCATENATE(AD3, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AE14" t="str">
+        <f>CONCATENATE(AE3, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AF14" t="str">
+        <f>CONCATENATE(AF3, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>436</v>
       </c>
@@ -1257,55 +1741,95 @@
         <v>4</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15:V15" si="2">CONCATENATE(K4, ", ")</f>
+        <f t="shared" ref="K15:AH15" si="2">CONCATENATE(K4, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(P4, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(Q4, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(R4, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(S4, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(T4, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(U4, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">0, </v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(V4, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="W15" t="str">
+        <f>CONCATENATE(W4, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="X15" t="str">
+        <f>CONCATENATE(X4, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Y15" t="str">
+        <f>CONCATENATE(Y4, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Z15" t="str">
+        <f>CONCATENATE(Z4, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AA15" t="str">
+        <f>CONCATENATE(AA4, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AB15" t="str">
+        <f>CONCATENATE(AB4, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AC15" t="str">
+        <f>CONCATENATE(AC4, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AD15" t="str">
+        <f>CONCATENATE(AD4, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AE15" t="str">
+        <f>CONCATENATE(AE4, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AF15" t="str">
+        <f>CONCATENATE(AF4, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>400</v>
       </c>
@@ -1313,55 +1837,95 @@
         <v>1</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" ref="K16:V16" si="3">CONCATENATE(K5, ", ")</f>
+        <f t="shared" ref="K16:AH16" si="3">CONCATENATE(K5, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(P5, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(Q5, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(R5, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(S5, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(T5, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(U5, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0, </v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(V5, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="W16" t="str">
+        <f>CONCATENATE(W5, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="X16" t="str">
+        <f>CONCATENATE(X5, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Y16" t="str">
+        <f>CONCATENATE(Y5, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Z16" t="str">
+        <f>CONCATENATE(Z5, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AA16" t="str">
+        <f>CONCATENATE(AA5, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AB16" t="str">
+        <f>CONCATENATE(AB5, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AC16" t="str">
+        <f>CONCATENATE(AC5, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AD16" t="str">
+        <f>CONCATENATE(AD5, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AE16" t="str">
+        <f>CONCATENATE(AE5, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AF16" t="str">
+        <f>CONCATENATE(AF5, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>435</v>
       </c>
@@ -1369,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ref="K17:V17" si="4">CONCATENATE(K6, ", ")</f>
+        <f t="shared" ref="K17:AH17" si="4">CONCATENATE(K6, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L17" t="str">
@@ -1382,42 +1946,82 @@
       </c>
       <c r="N17" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(P6, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(Q6, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(R6, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(S6, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(T6, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(U6, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">0, </v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(V6, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="W17" t="str">
+        <f>CONCATENATE(W6, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="X17" t="str">
+        <f>CONCATENATE(X6, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Y17" t="str">
+        <f>CONCATENATE(Y6, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Z17" t="str">
+        <f>CONCATENATE(Z6, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AA17" t="str">
+        <f>CONCATENATE(AA6, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AB17" t="str">
+        <f>CONCATENATE(AB6, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AC17" t="str">
+        <f>CONCATENATE(AC6, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AD17" t="str">
+        <f>CONCATENATE(AD6, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AE17" t="str">
+        <f>CONCATENATE(AE6, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AF17" t="str">
+        <f>CONCATENATE(AF6, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>433</v>
       </c>
@@ -1425,16 +2029,16 @@
         <v>4</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18:V18" si="5">CONCATENATE(K7, ", ")</f>
+        <f t="shared" ref="K18:AH18" si="5">CONCATENATE(K7, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="5"/>
@@ -1442,38 +2046,78 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(P7, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(Q7, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(R7, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(S7, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(T7, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(U7, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">0, </v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(V7, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="W18" t="str">
+        <f>CONCATENATE(W7, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="X18" t="str">
+        <f>CONCATENATE(X7, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Y18" t="str">
+        <f>CONCATENATE(Y7, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Z18" t="str">
+        <f>CONCATENATE(Z7, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AA18" t="str">
+        <f>CONCATENATE(AA7, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AB18" t="str">
+        <f>CONCATENATE(AB7, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AC18" t="str">
+        <f>CONCATENATE(AC7, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AD18" t="str">
+        <f>CONCATENATE(AD7, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AE18" t="str">
+        <f>CONCATENATE(AE7, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AF18" t="str">
+        <f>CONCATENATE(AF7, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>423</v>
       </c>
@@ -1481,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ref="K19:V19" si="6">CONCATENATE(K8, ", ")</f>
+        <f t="shared" ref="K19:AH19" si="6">CONCATENATE(K8, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L19" t="str">
@@ -1501,35 +2145,75 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(P8, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(Q8, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(R8, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(S8, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(T8, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(U8, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">0, </v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(V8, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="W19" t="str">
+        <f>CONCATENATE(W8, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="X19" t="str">
+        <f>CONCATENATE(X8, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Y19" t="str">
+        <f>CONCATENATE(Y8, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Z19" t="str">
+        <f>CONCATENATE(Z8, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AA19" t="str">
+        <f>CONCATENATE(AA8, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AB19" t="str">
+        <f>CONCATENATE(AB8, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AC19" t="str">
+        <f>CONCATENATE(AC8, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AD19" t="str">
+        <f>CONCATENATE(AD8, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AE19" t="str">
+        <f>CONCATENATE(AE8, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AF19" t="str">
+        <f>CONCATENATE(AF8, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>541</v>
       </c>
@@ -1537,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" ref="K20:V20" si="7">CONCATENATE(K9, ", ")</f>
+        <f t="shared" ref="K20:AH20" si="7">CONCATENATE(K9, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L20" t="str">
@@ -1557,35 +2241,75 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(P9, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(Q9, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(R9, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(S9, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(T9, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(U9, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">0, </v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(V9, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="W20" t="str">
+        <f>CONCATENATE(W9, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="X20" t="str">
+        <f>CONCATENATE(X9, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Y20" t="str">
+        <f>CONCATENATE(Y9, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Z20" t="str">
+        <f>CONCATENATE(Z9, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AA20" t="str">
+        <f>CONCATENATE(AA9, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AB20" t="str">
+        <f>CONCATENATE(AB9, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AC20" t="str">
+        <f>CONCATENATE(AC9, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AD20" t="str">
+        <f>CONCATENATE(AD9, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AE20" t="str">
+        <f>CONCATENATE(AE9, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AF20" t="str">
+        <f>CONCATENATE(AF9, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="K21" t="str">
@@ -1593,8 +2317,8 @@
         <v xml:space="preserve">1, </v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:V21" si="8">CONCATENATE(L10, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <f t="shared" ref="L21:AH21" si="8">CONCATENATE(L10, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="8"/>
@@ -1609,11 +2333,11 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(P10, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(Q10, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R21" t="str">
@@ -1621,87 +2345,167 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" ref="S21:V21" si="9">CONCATENATE(S10, ", ")</f>
+        <f>CONCATENATE(S10, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(T10, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE(U10, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">0, </v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(V10, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="W21" t="str">
+        <f>CONCATENATE(W10, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="X21" t="str">
+        <f>CONCATENATE(X10, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Y21" t="str">
+        <f>CONCATENATE(Y10, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Z21" t="str">
+        <f>CONCATENATE(Z10, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AA21" t="str">
+        <f>CONCATENATE(AA10, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AB21" t="str">
+        <f>CONCATENATE(AB10, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AC21" t="str">
+        <f>CONCATENATE(AC10, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AD21" t="str">
+        <f>CONCATENATE(AD10, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AE21" t="str">
+        <f>CONCATENATE(AE10, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AF21" t="str">
+        <f>CONCATENATE(AF10, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="K22" t="str">
-        <f t="shared" ref="K22:V22" si="10">CONCATENATE(K11, ", ")</f>
+        <f t="shared" ref="K22:AH22" si="9">CONCATENATE(K11, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">0, </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">1, </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(P11, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(Q11, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="10"/>
+        <f>CONCATENATE(R11, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="10"/>
+        <f>CONCATENATE(S11, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="10"/>
+        <f>CONCATENATE(T11, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(U11, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">0, </v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+        <f>CONCATENATE(V11, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="W22" t="str">
+        <f>CONCATENATE(W11, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="X22" t="str">
+        <f>CONCATENATE(X11, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Y22" t="str">
+        <f>CONCATENATE(Y11, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Z22" t="str">
+        <f>CONCATENATE(Z11, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AA22" t="str">
+        <f>CONCATENATE(AA11, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AB22" t="str">
+        <f>CONCATENATE(AB11, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AC22" t="str">
+        <f>CONCATENATE(AC11, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AD22" t="str">
+        <f>CONCATENATE(AD11, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AE22" t="str">
+        <f>CONCATENATE(AE11, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AF22" t="str">
+        <f>CONCATENATE(AF11, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>402</v>
       </c>
@@ -1709,7 +2513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>454</v>
       </c>
@@ -1722,44 +2526,74 @@
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="G27">
-        <v>311</v>
-      </c>
-      <c r="H27">
-        <v>334</v>
-      </c>
-      <c r="I27">
-        <v>402</v>
-      </c>
-      <c r="J27">
-        <v>423</v>
-      </c>
-      <c r="K27">
-        <v>431</v>
-      </c>
-      <c r="L27">
-        <v>433</v>
-      </c>
-      <c r="M27">
-        <v>435</v>
-      </c>
-      <c r="N27">
-        <v>436</v>
-      </c>
-      <c r="O27">
-        <v>442</v>
-      </c>
-      <c r="P27">
-        <v>444</v>
-      </c>
-      <c r="Q27">
-        <v>454</v>
-      </c>
-      <c r="R27">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" t="s">
+        <v>29</v>
+      </c>
+      <c r="U27" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" t="s">
+        <v>30</v>
+      </c>
+      <c r="W27" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>334</v>
       </c>
@@ -1767,43 +2601,73 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>3</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
         <v>3</v>
       </c>
-      <c r="R28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>402</v>
       </c>
@@ -1846,8 +2710,38 @@
       <c r="R29">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <v>13</v>
+      </c>
+      <c r="T29">
+        <v>14</v>
+      </c>
+      <c r="U29">
+        <v>15</v>
+      </c>
+      <c r="V29">
+        <v>16</v>
+      </c>
+      <c r="W29">
+        <v>17</v>
+      </c>
+      <c r="X29">
+        <v>18</v>
+      </c>
+      <c r="Y29">
+        <v>19</v>
+      </c>
+      <c r="Z29">
+        <v>20</v>
+      </c>
+      <c r="AA29">
+        <v>22</v>
+      </c>
+      <c r="AB29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D30">
         <v>423</v>
       </c>
@@ -1855,7 +2749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>431</v>
       </c>
@@ -1863,7 +2757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D32">
         <v>433</v>
       </c>
@@ -1872,54 +2766,94 @@
       </c>
       <c r="G32" t="str">
         <f>CONCATENATE(G27, ",")</f>
-        <v>311,</v>
+        <v>311-a,</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" ref="H32:R33" si="11">CONCATENATE(H27, ",")</f>
-        <v>334,</v>
+        <f t="shared" ref="H32:W33" si="10">CONCATENATE(H27, ",")</f>
+        <v>311-b,</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="11"/>
-        <v>402,</v>
+        <f t="shared" si="10"/>
+        <v>334-a,</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="11"/>
-        <v>423,</v>
+        <f t="shared" si="10"/>
+        <v>334-b,</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="11"/>
-        <v>431,</v>
+        <f t="shared" si="10"/>
+        <v>402-a,</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="11"/>
-        <v>433,</v>
+        <f>CONCATENATE(L27, ",")</f>
+        <v>423-a,</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="11"/>
-        <v>435,</v>
+        <f>CONCATENATE(M27, ",")</f>
+        <v>423-b,</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="11"/>
-        <v>436,</v>
+        <f>CONCATENATE(N27, ",")</f>
+        <v>431-a,</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="11"/>
-        <v>442,</v>
+        <f>CONCATENATE(O27, ",")</f>
+        <v>431-b,</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="11"/>
-        <v>444,</v>
+        <f>CONCATENATE(P27, ",")</f>
+        <v>433-a,</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="11"/>
-        <v>454,</v>
-      </c>
-      <c r="R32">
+        <f>Q27</f>
+        <v>433-b</v>
+      </c>
+      <c r="R32" t="str">
         <f>R27</f>
-        <v>541</v>
-      </c>
-    </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
+        <v>435-a</v>
+      </c>
+      <c r="S32" t="str">
+        <f>S27</f>
+        <v>435-b</v>
+      </c>
+      <c r="T32" t="str">
+        <f>T27</f>
+        <v>436-a</v>
+      </c>
+      <c r="U32" t="str">
+        <f>U27</f>
+        <v>436-b</v>
+      </c>
+      <c r="V32" t="str">
+        <f>V27</f>
+        <v>442-a</v>
+      </c>
+      <c r="W32" t="str">
+        <f>W27</f>
+        <v>442-b</v>
+      </c>
+      <c r="X32" t="str">
+        <f>X27</f>
+        <v>444-a</v>
+      </c>
+      <c r="Y32" t="str">
+        <f>Y27</f>
+        <v>444-b</v>
+      </c>
+      <c r="Z32" t="str">
+        <f>Z27</f>
+        <v>454-a</v>
+      </c>
+      <c r="AA32" t="str">
+        <f>AA27</f>
+        <v>541-a</v>
+      </c>
+      <c r="AB32" t="str">
+        <f>AB27</f>
+        <v>541-b</v>
+      </c>
+    </row>
+    <row r="33" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>435</v>
       </c>
@@ -1928,54 +2862,94 @@
       </c>
       <c r="G33" t="str">
         <f>CONCATENATE(G28, ",")</f>
-        <v>4,</v>
+        <v>2,</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="11"/>
-        <v>5,</v>
+        <f t="shared" si="10"/>
+        <v>2,</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3,</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="11"/>
-        <v>4,</v>
+        <f t="shared" si="10"/>
+        <v>2,</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="11"/>
-        <v>4,</v>
+        <f t="shared" si="10"/>
+        <v>3,</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="11"/>
-        <v>4,</v>
+        <f>CONCATENATE(L28, ",")</f>
+        <v>2,</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="11"/>
-        <v>4,</v>
+        <f>CONCATENATE(M28, ",")</f>
+        <v>2,</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="11"/>
-        <v>4,</v>
+        <f>CONCATENATE(N28, ",")</f>
+        <v>2,</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="11"/>
-        <v>4,</v>
+        <f>CONCATENATE(O28, ",")</f>
+        <v>2,</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="11"/>
-        <v>4,</v>
+        <f>CONCATENATE(P28, ",")</f>
+        <v>2,</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="11"/>
+        <f>CONCATENATE(Q28, ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="R33" t="str">
+        <f>CONCATENATE(R28, ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="S33" t="str">
+        <f>CONCATENATE(S28, ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="T33" t="str">
+        <f>CONCATENATE(T28, ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="U33" t="str">
+        <f>CONCATENATE(U28, ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="V33" t="str">
+        <f>CONCATENATE(V28, ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="W33" t="str">
+        <f>CONCATENATE(W28, ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="X33" t="str">
+        <f>CONCATENATE(X28, ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="Y33" t="str">
+        <f>CONCATENATE(Y28, ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="Z33" t="str">
+        <f>CONCATENATE(Z28, ",")</f>
         <v>3,</v>
       </c>
-      <c r="R33">
-        <f>R28</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="AA33" t="str">
+        <f>CONCATENATE(AA28, ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="AB33">
+        <f>AB28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D34" s="1">
         <v>436</v>
       </c>
@@ -1989,13 +2963,13 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34">
         <v>2</v>
@@ -2010,16 +2984,46 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>442</v>
       </c>
@@ -2027,7 +3031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D36">
         <v>444</v>
       </c>
@@ -2035,7 +3039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D37" s="1">
         <v>454</v>
       </c>
@@ -2050,51 +3054,91 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:R37" si="12">IF(H34=1, 1, 0)</f>
+        <f t="shared" ref="H37:AC37" si="11">IF(H34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="J37">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="K37">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P37">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <f>IF(AA34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <f>IF(AB34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <v>541</v>
       </c>
@@ -2109,55 +3153,95 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:R38" si="13">IF(H34=2,1,0)</f>
+        <f t="shared" ref="H38:AC38" si="12">IF(H34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="L38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="R38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f>IF(AA34=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f>IF(AB34=2,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="G40">
@@ -2167,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:28" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>1</v>
       </c>
@@ -2175,7 +3259,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
       <c r="G42">
         <v>0</v>
       </c>
@@ -2183,7 +3273,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -2191,7 +3287,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
       <c r="G44">
         <v>1</v>
       </c>
@@ -2199,7 +3301,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -2207,7 +3315,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
       <c r="G46">
         <v>0</v>
       </c>
@@ -2215,7 +3329,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
       <c r="G47">
         <v>1</v>
       </c>
@@ -2223,7 +3343,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
       <c r="G48">
         <v>1</v>
       </c>
@@ -2231,7 +3357,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
       <c r="G49">
         <v>1</v>
       </c>
@@ -2239,7 +3371,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
       <c r="G50">
         <v>1</v>
       </c>
@@ -2247,7 +3385,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
       <c r="G51">
         <v>1</v>
       </c>
@@ -2255,79 +3399,200 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
       <c r="G54" t="str">
         <f>CONCATENATE(G40, ", ", H40, ", ")</f>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
       <c r="G55" t="str">
-        <f t="shared" ref="G55:G64" si="14">CONCATENATE(G41, ", ", H41, ", ")</f>
+        <f t="shared" ref="G55:G64" si="13">CONCATENATE(G41, ", ", H41, ", ")</f>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
       <c r="G56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
       <c r="G57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
       <c r="G58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
       <c r="G59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
       <c r="G60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
       <c r="G61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
       <c r="G62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
       <c r="G63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
       <c r="G64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
       <c r="G65" t="str">
         <f>CONCATENATE(G51, ", ", H51)</f>
         <v>1, 0</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G68" t="str">
         <f>CONCATENATE(G54,G55,G56,G57,G58,G59,G60,G61,G62,G63,G64,G65)</f>
         <v>1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0</v>

--- a/Project/MSCI 435 Data.xlsx
+++ b/Project/MSCI 435 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefanno\Documents\MSCI 435\msci435\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A260C7E4-8904-4502-A5A5-F7A7473D2EE2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51374C1F-E36D-4375-A9CD-1B28DEF92031}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="9024" xr2:uid="{34626F64-5F57-4DCA-A3DE-04B964B15F09}"/>
   </bookViews>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E140EB0-1F40-4333-A8EF-D2C7472C4613}">
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,58 +602,58 @@
         <v>334</v>
       </c>
       <c r="O1">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="P1">
         <v>423</v>
       </c>
       <c r="Q1">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="R1">
         <v>431</v>
       </c>
       <c r="S1">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="T1">
         <v>433</v>
       </c>
       <c r="U1">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="V1">
         <v>435</v>
       </c>
       <c r="W1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="X1">
         <v>436</v>
       </c>
       <c r="Y1">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Z1">
         <v>442</v>
       </c>
       <c r="AA1">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AB1">
         <v>444</v>
       </c>
       <c r="AC1">
-        <v>444</v>
+        <v>541</v>
       </c>
       <c r="AD1">
+        <v>541</v>
+      </c>
+      <c r="AE1">
+        <v>402</v>
+      </c>
+      <c r="AF1">
         <v>454</v>
-      </c>
-      <c r="AE1">
-        <v>541</v>
-      </c>
-      <c r="AF1">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -816,16 +816,16 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1047,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>1</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1413,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -1490,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:AH13" si="0">CONCATENATE(L2, ", ")</f>
+        <f t="shared" ref="L13:O13" si="0">CONCATENATE(L2, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="M13" t="str">
@@ -1565,7 +1565,7 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(O2, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P13" t="str">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="W13" t="str">
         <f>CONCATENATE(W2, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="X13" t="str">
         <f>CONCATENATE(X2, ", ")</f>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="Y13" t="str">
         <f>CONCATENATE(Y2, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="Z13" t="str">
         <f>CONCATENATE(Z2, ", ")</f>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="AC13" t="str">
         <f>CONCATENATE(AC2, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="AD13" t="str">
         <f>CONCATENATE(AD2, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="AE13" t="str">
         <f>CONCATENATE(AE2, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="AF13" t="str">
         <f>CONCATENATE(AF2, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ref="K14:AH14" si="1">CONCATENATE(K3, ", ")</f>
+        <f t="shared" ref="K14:O14" si="1">CONCATENATE(K3, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L14" t="str">
@@ -1661,7 +1661,7 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(O3, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P14" t="str">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="W14" t="str">
         <f>CONCATENATE(W3, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="X14" t="str">
         <f>CONCATENATE(X3, ", ")</f>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="Y14" t="str">
         <f>CONCATENATE(Y3, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="Z14" t="str">
         <f>CONCATENATE(Z3, ", ")</f>
@@ -1718,19 +1718,19 @@
       </c>
       <c r="AC14" t="str">
         <f>CONCATENATE(AC3, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="AD14" t="str">
         <f>CONCATENATE(AD3, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="AE14" t="str">
         <f>CONCATENATE(AE3, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="AF14" t="str">
         <f>CONCATENATE(AF3, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -1741,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15:AH15" si="2">CONCATENATE(K4, ", ")</f>
+        <f t="shared" ref="K15:O15" si="2">CONCATENATE(K4, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L15" t="str">
@@ -1757,7 +1757,7 @@
         <v xml:space="preserve">1, </v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(O4, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P15" t="str">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="Q15" t="str">
         <f>CONCATENATE(Q4, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="R15" t="str">
         <f>CONCATENATE(R4, ", ")</f>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="W15" t="str">
         <f>CONCATENATE(W4, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="X15" t="str">
         <f>CONCATENATE(X4, ", ")</f>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" ref="K16:AH16" si="3">CONCATENATE(K5, ", ")</f>
+        <f t="shared" ref="K16:O16" si="3">CONCATENATE(K5, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L16" t="str">
@@ -1853,7 +1853,7 @@
         <v xml:space="preserve">1, </v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(O5, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P16" t="str">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="Q16" t="str">
         <f>CONCATENATE(Q5, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="R16" t="str">
         <f>CONCATENATE(R5, ", ")</f>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="W16" t="str">
         <f>CONCATENATE(W5, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="X16" t="str">
         <f>CONCATENATE(X5, ", ")</f>
@@ -1933,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ref="K17:AH17" si="4">CONCATENATE(K6, ", ")</f>
+        <f t="shared" ref="K17:O17" si="4">CONCATENATE(K6, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L17" t="str">
@@ -1949,8 +1949,8 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(O6, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="P17" t="str">
         <f>CONCATENATE(P6, ", ")</f>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="Q17" t="str">
         <f>CONCATENATE(Q6, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="R17" t="str">
         <f>CONCATENATE(R6, ", ")</f>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="Y17" t="str">
         <f>CONCATENATE(Y6, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="Z17" t="str">
         <f>CONCATENATE(Z6, ", ")</f>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="AC17" t="str">
         <f>CONCATENATE(AC6, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="AD17" t="str">
         <f>CONCATENATE(AD6, ", ")</f>
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18:AH18" si="5">CONCATENATE(K7, ", ")</f>
+        <f t="shared" ref="K18:O18" si="5">CONCATENATE(K7, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="L18" t="str">
@@ -2045,8 +2045,8 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">1, </v>
+        <f>CONCATENATE(O7, ", ")</f>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="P18" t="str">
         <f>CONCATENATE(P7, ", ")</f>
@@ -2106,15 +2106,15 @@
       </c>
       <c r="AD18" t="str">
         <f>CONCATENATE(AD7, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="AE18" t="str">
         <f>CONCATENATE(AE7, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="AF18" t="str">
         <f>CONCATENATE(AF7, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ref="K19:AH19" si="6">CONCATENATE(K8, ", ")</f>
+        <f t="shared" ref="K19:O19" si="6">CONCATENATE(K8, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L19" t="str">
@@ -2141,7 +2141,7 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE(O8, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P19" t="str">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="Y19" t="str">
         <f>CONCATENATE(Y8, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="Z19" t="str">
         <f>CONCATENATE(Z8, ", ")</f>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="AA19" t="str">
         <f>CONCATENATE(AA8, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="AB19" t="str">
         <f>CONCATENATE(AB8, ", ")</f>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="AD19" t="str">
         <f>CONCATENATE(AD8, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="AE19" t="str">
         <f>CONCATENATE(AE8, ", ")</f>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="AF19" t="str">
         <f>CONCATENATE(AF8, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" ref="K20:AH20" si="7">CONCATENATE(K9, ", ")</f>
+        <f t="shared" ref="K20:O20" si="7">CONCATENATE(K9, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L20" t="str">
@@ -2237,7 +2237,7 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(O9, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P20" t="str">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="U20" t="str">
         <f>CONCATENATE(U9, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="V20" t="str">
         <f>CONCATENATE(V9, ", ")</f>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="W20" t="str">
         <f>CONCATENATE(W9, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="X20" t="str">
         <f>CONCATENATE(X9, ", ")</f>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="Y20" t="str">
         <f>CONCATENATE(Y9, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="Z20" t="str">
         <f>CONCATENATE(Z9, ", ")</f>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="AC20" t="str">
         <f>CONCATENATE(AC9, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="AD20" t="str">
         <f>CONCATENATE(AD9, ", ")</f>
@@ -2317,7 +2317,7 @@
         <v xml:space="preserve">1, </v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:AH21" si="8">CONCATENATE(L10, ", ")</f>
+        <f t="shared" ref="L21:O21" si="8">CONCATENATE(L10, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="M21" t="str">
@@ -2329,7 +2329,7 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(O10, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P21" t="str">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="S21" t="str">
         <f>CONCATENATE(S10, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="T21" t="str">
         <f>CONCATENATE(T10, ", ")</f>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="U21" t="str">
         <f>CONCATENATE(U10, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="V21" t="str">
         <f>CONCATENATE(V10, ", ")</f>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="AD21" t="str">
         <f>CONCATENATE(AD10, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="AE21" t="str">
         <f>CONCATENATE(AE10, ", ")</f>
@@ -2398,14 +2398,14 @@
       </c>
       <c r="AF21" t="str">
         <f>CONCATENATE(AF10, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="K22" t="str">
-        <f t="shared" ref="K22:AH22" si="9">CONCATENATE(K11, ", ")</f>
+        <f t="shared" ref="K22:O22" si="9">CONCATENATE(K11, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="L22" t="str">
@@ -2421,8 +2421,8 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">0, </v>
+        <f>CONCATENATE(O11, ", ")</f>
+        <v xml:space="preserve">1, </v>
       </c>
       <c r="P22" t="str">
         <f>CONCATENATE(P11, ", ")</f>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="Q22" t="str">
         <f>CONCATENATE(Q11, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="R22" t="str">
         <f>CONCATENATE(R11, ", ")</f>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="AD22" t="str">
         <f>CONCATENATE(AD11, ", ")</f>
-        <v xml:space="preserve">1, </v>
+        <v xml:space="preserve">0, </v>
       </c>
       <c r="AE22" t="str">
         <f>CONCATENATE(AE11, ", ")</f>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AF22" t="str">
         <f>CONCATENATE(AF11, ", ")</f>
-        <v xml:space="preserve">0, </v>
+        <v xml:space="preserve">1, </v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
@@ -2539,58 +2539,58 @@
         <v>34</v>
       </c>
       <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA27" t="s">
         <v>24</v>
       </c>
-      <c r="L27" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>38</v>
-      </c>
-      <c r="R27" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" t="s">
-        <v>39</v>
-      </c>
-      <c r="T27" t="s">
-        <v>29</v>
-      </c>
-      <c r="U27" t="s">
-        <v>40</v>
-      </c>
-      <c r="V27" t="s">
-        <v>30</v>
-      </c>
-      <c r="W27" t="s">
-        <v>41</v>
-      </c>
-      <c r="X27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z27" t="s">
+      <c r="AB27" t="s">
         <v>32</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
@@ -2613,58 +2613,58 @@
         <v>2</v>
       </c>
       <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28">
         <v>3</v>
       </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
-      <c r="P28">
-        <v>2</v>
-      </c>
-      <c r="Q28">
-        <v>2</v>
-      </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>2</v>
-      </c>
-      <c r="X28">
-        <v>2</v>
-      </c>
-      <c r="Y28">
-        <v>2</v>
-      </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>3</v>
-      </c>
-      <c r="AA28">
-        <v>2</v>
-      </c>
-      <c r="AB28">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
@@ -2687,58 +2687,58 @@
         <v>4</v>
       </c>
       <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>9</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>13</v>
+      </c>
+      <c r="S29">
+        <v>14</v>
+      </c>
+      <c r="T29">
+        <v>15</v>
+      </c>
+      <c r="U29">
+        <v>16</v>
+      </c>
+      <c r="V29">
+        <v>17</v>
+      </c>
+      <c r="W29">
+        <v>18</v>
+      </c>
+      <c r="X29">
+        <v>19</v>
+      </c>
+      <c r="Y29">
+        <v>22</v>
+      </c>
+      <c r="Z29">
+        <v>23</v>
+      </c>
+      <c r="AA29">
         <v>5</v>
       </c>
-      <c r="L29">
-        <v>6</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>8</v>
-      </c>
-      <c r="O29">
-        <v>9</v>
-      </c>
-      <c r="P29">
-        <v>10</v>
-      </c>
-      <c r="Q29">
-        <v>11</v>
-      </c>
-      <c r="R29">
-        <v>12</v>
-      </c>
-      <c r="S29">
-        <v>13</v>
-      </c>
-      <c r="T29">
-        <v>14</v>
-      </c>
-      <c r="U29">
-        <v>15</v>
-      </c>
-      <c r="V29">
-        <v>16</v>
-      </c>
-      <c r="W29">
-        <v>17</v>
-      </c>
-      <c r="X29">
-        <v>18</v>
-      </c>
-      <c r="Y29">
-        <v>19</v>
-      </c>
-      <c r="Z29">
+      <c r="AB29">
         <v>20</v>
-      </c>
-      <c r="AA29">
-        <v>22</v>
-      </c>
-      <c r="AB29">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
@@ -2769,7 +2769,7 @@
         <v>311-a,</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" ref="H32:W33" si="10">CONCATENATE(H27, ",")</f>
+        <f t="shared" ref="H32:K33" si="10">CONCATENATE(H27, ",")</f>
         <v>311-b,</v>
       </c>
       <c r="I32" t="str">
@@ -2781,79 +2781,79 @@
         <v>334-b,</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="10"/>
-        <v>402-a,</v>
+        <f t="shared" ref="K32:O33" si="11">CONCATENATE(K27, ",")</f>
+        <v>423-a,</v>
       </c>
       <c r="L32" t="str">
-        <f>CONCATENATE(L27, ",")</f>
-        <v>423-a,</v>
+        <f t="shared" si="11"/>
+        <v>423-b,</v>
       </c>
       <c r="M32" t="str">
-        <f>CONCATENATE(M27, ",")</f>
-        <v>423-b,</v>
+        <f t="shared" si="11"/>
+        <v>431-a,</v>
       </c>
       <c r="N32" t="str">
-        <f>CONCATENATE(N27, ",")</f>
-        <v>431-a,</v>
+        <f t="shared" si="11"/>
+        <v>431-b,</v>
       </c>
       <c r="O32" t="str">
-        <f>CONCATENATE(O27, ",")</f>
-        <v>431-b,</v>
+        <f t="shared" si="11"/>
+        <v>433-a,</v>
       </c>
       <c r="P32" t="str">
-        <f>CONCATENATE(P27, ",")</f>
-        <v>433-a,</v>
+        <f>P27</f>
+        <v>433-b</v>
       </c>
       <c r="Q32" t="str">
         <f>Q27</f>
-        <v>433-b</v>
+        <v>435-a</v>
       </c>
       <c r="R32" t="str">
         <f>R27</f>
-        <v>435-a</v>
+        <v>435-b</v>
       </c>
       <c r="S32" t="str">
         <f>S27</f>
-        <v>435-b</v>
+        <v>436-a</v>
       </c>
       <c r="T32" t="str">
         <f>T27</f>
-        <v>436-a</v>
+        <v>436-b</v>
       </c>
       <c r="U32" t="str">
         <f>U27</f>
-        <v>436-b</v>
+        <v>442-a</v>
       </c>
       <c r="V32" t="str">
         <f>V27</f>
-        <v>442-a</v>
+        <v>442-b</v>
       </c>
       <c r="W32" t="str">
         <f>W27</f>
-        <v>442-b</v>
+        <v>444-a</v>
       </c>
       <c r="X32" t="str">
         <f>X27</f>
-        <v>444-a</v>
+        <v>444-b</v>
       </c>
       <c r="Y32" t="str">
         <f>Y27</f>
-        <v>444-b</v>
+        <v>541-a</v>
       </c>
       <c r="Z32" t="str">
         <f>Z27</f>
-        <v>454-a</v>
+        <v>541-b</v>
       </c>
       <c r="AA32" t="str">
-        <f>AA27</f>
-        <v>541-a</v>
+        <f>CONCATENATE(AA27, ",")</f>
+        <v>402-a,</v>
       </c>
       <c r="AB32" t="str">
         <f>AB27</f>
-        <v>541-b</v>
-      </c>
-    </row>
-    <row r="33" spans="4:28" x14ac:dyDescent="0.3">
+        <v>454-a</v>
+      </c>
+    </row>
+    <row r="33" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>435</v>
       </c>
@@ -2877,23 +2877,23 @@
         <v>2,</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="10"/>
-        <v>3,</v>
+        <f t="shared" si="11"/>
+        <v>2,</v>
       </c>
       <c r="L33" t="str">
-        <f>CONCATENATE(L28, ",")</f>
+        <f t="shared" si="11"/>
         <v>2,</v>
       </c>
       <c r="M33" t="str">
-        <f>CONCATENATE(M28, ",")</f>
+        <f t="shared" si="11"/>
         <v>2,</v>
       </c>
       <c r="N33" t="str">
-        <f>CONCATENATE(N28, ",")</f>
+        <f t="shared" si="11"/>
         <v>2,</v>
       </c>
       <c r="O33" t="str">
-        <f>CONCATENATE(O28, ",")</f>
+        <f t="shared" si="11"/>
         <v>2,</v>
       </c>
       <c r="P33" t="str">
@@ -2936,20 +2936,20 @@
         <f>CONCATENATE(Y28, ",")</f>
         <v>2,</v>
       </c>
-      <c r="Z33" t="str">
-        <f>CONCATENATE(Z28, ",")</f>
-        <v>3,</v>
+      <c r="Z33">
+        <f>Z28</f>
+        <v>2</v>
       </c>
       <c r="AA33" t="str">
         <f>CONCATENATE(AA28, ",")</f>
-        <v>2,</v>
-      </c>
-      <c r="AB33">
-        <f>AB28</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:28" x14ac:dyDescent="0.3">
+        <v>3,</v>
+      </c>
+      <c r="AB33" t="str">
+        <f>CONCATENATE(AB28, ",")</f>
+        <v>3,</v>
+      </c>
+    </row>
+    <row r="34" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D34" s="1">
         <v>436</v>
       </c>
@@ -2975,13 +2975,13 @@
         <v>2</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -2993,7 +2993,7 @@
         <v>2</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -3017,13 +3017,13 @@
         <v>1</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>442</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D36">
         <v>444</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D37" s="1">
         <v>454</v>
       </c>
@@ -3054,91 +3054,91 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:AC37" si="11">IF(H34=1, 1, 0)</f>
+        <f t="shared" ref="H37:Z37" si="12">IF(H34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K37">
-        <f t="shared" si="11"/>
+        <f>IF(K34=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="11"/>
+        <f>IF(L34=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF(M34=1, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="11"/>
+        <f>IF(N34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="O37">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IF(O34=1, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" si="11"/>
+        <f>IF(P34=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="11"/>
+        <f>IF(Q34=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" si="11"/>
+        <f>IF(R34=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF(S34=1, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="T37">
-        <f t="shared" si="11"/>
+        <f>IF(T34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="U37">
-        <f t="shared" si="11"/>
+        <f>IF(U34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="V37">
-        <f t="shared" si="11"/>
+        <f>IF(V34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="W37">
-        <f t="shared" si="11"/>
+        <f>IF(W34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="X37">
-        <f t="shared" si="11"/>
+        <f>IF(X34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="11"/>
+        <f>IF(Y34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="11"/>
+        <f>IF(Z34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="AA37">
         <f>IF(AA34=1, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37">
         <f>IF(AB34=1, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <v>541</v>
       </c>
@@ -3153,95 +3153,95 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:AC38" si="12">IF(H34=2,1,0)</f>
+        <f t="shared" ref="H38:Z38" si="13">IF(H34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="12"/>
+        <f>IF(K34=2,1,0)</f>
         <v>1</v>
       </c>
       <c r="L38">
-        <f t="shared" si="12"/>
+        <f>IF(L34=2,1,0)</f>
         <v>1</v>
       </c>
       <c r="M38">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>IF(M34=2,1,0)</f>
+        <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="12"/>
+        <f>IF(N34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>IF(O34=2,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P38">
-        <f t="shared" si="12"/>
+        <f>IF(P34=2,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="12"/>
+        <f>IF(Q34=2,1,0)</f>
         <v>1</v>
       </c>
       <c r="R38">
-        <f t="shared" si="12"/>
+        <f>IF(R34=2,1,0)</f>
         <v>1</v>
       </c>
       <c r="S38">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>IF(S34=2,1,0)</f>
+        <v>0</v>
       </c>
       <c r="T38">
-        <f t="shared" si="12"/>
+        <f>IF(T34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="U38">
-        <f t="shared" si="12"/>
+        <f>IF(U34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="V38">
-        <f t="shared" si="12"/>
+        <f>IF(V34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="W38">
-        <f t="shared" si="12"/>
+        <f>IF(W34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="X38">
-        <f t="shared" si="12"/>
+        <f>IF(X34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="12"/>
+        <f>IF(Y34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="12"/>
+        <f>IF(Z34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AA38">
         <f>IF(AA34=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
         <f>IF(AB34=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="G40">
@@ -3250,16 +3250,192 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="K40" t="str">
+        <f>CONCATENATE(G37, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" ref="L40:AH40" si="14">CONCATENATE(H37, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AB40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AD40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AE40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AF40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+    </row>
+    <row r="41" spans="4:32" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="K41" t="str">
+        <f>CONCATENATE(G38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" ref="L41" si="15">CONCATENATE(H38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" ref="M41" si="16">CONCATENATE(I38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" ref="N41" si="17">CONCATENATE(J38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" ref="O41" si="18">CONCATENATE(K38, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" ref="P41" si="19">CONCATENATE(L38, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" ref="Q41" si="20">CONCATENATE(M38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" ref="R41" si="21">CONCATENATE(N38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" ref="S41" si="22">CONCATENATE(O38, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" ref="T41" si="23">CONCATENATE(P38, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" ref="U41" si="24">CONCATENATE(Q38, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" ref="V41" si="25">CONCATENATE(R38, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" ref="W41" si="26">CONCATENATE(S38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" ref="X41" si="27">CONCATENATE(T38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" ref="Y41" si="28">CONCATENATE(U38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" ref="Z41" si="29">CONCATENATE(V38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" ref="AA41" si="30">CONCATENATE(W38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" ref="AB41" si="31">CONCATENATE(X38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" ref="AC41" si="32">CONCATENATE(Y38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AD41" t="str">
+        <f t="shared" ref="AD41" si="33">CONCATENATE(Z38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="AE41" t="str">
+        <f t="shared" ref="AE41" si="34">CONCATENATE(AA38, ", ")</f>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="AF41" t="str">
+        <f t="shared" ref="AF41" si="35">CONCATENATE(AB38, ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+    </row>
+    <row r="42" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>21</v>
       </c>
@@ -3273,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>22</v>
       </c>
@@ -3287,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>23</v>
       </c>
@@ -3301,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>34</v>
       </c>
@@ -3315,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>24</v>
       </c>
@@ -3329,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>35</v>
       </c>
@@ -3343,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>25</v>
       </c>
@@ -3441,7 +3617,7 @@
         <v>3</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" ref="G55:G64" si="13">CONCATENATE(G41, ", ", H41, ", ")</f>
+        <f t="shared" ref="G55:G64" si="36">CONCATENATE(G41, ", ", H41, ", ")</f>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
@@ -3456,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
     </row>
@@ -3471,7 +3647,7 @@
         <v>4</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
     </row>
@@ -3486,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
@@ -3501,7 +3677,7 @@
         <v>4</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
     </row>
@@ -3516,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
     </row>
@@ -3531,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
@@ -3546,7 +3722,7 @@
         <v>4</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
@@ -3561,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>
@@ -3576,7 +3752,7 @@
         <v>4</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
     </row>

--- a/Project/MSCI 435 Data.xlsx
+++ b/Project/MSCI 435 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefanno\Documents\MSCI 435\msci435\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51374C1F-E36D-4375-A9CD-1B28DEF92031}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB445C61-0566-40FE-90FA-D29330E88394}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="9024" xr2:uid="{34626F64-5F57-4DCA-A3DE-04B964B15F09}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
   <si>
     <t>Code</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>541-b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, </t>
   </si>
 </sst>
 </file>
@@ -556,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E140EB0-1F40-4333-A8EF-D2C7472C4613}">
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,7 +1559,7 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:O13" si="0">CONCATENATE(L2, ", ")</f>
+        <f t="shared" ref="L13:N13" si="0">CONCATENATE(L2, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="M13" t="str">
@@ -1565,75 +1571,75 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O13" t="str">
-        <f>CONCATENATE(O2, ", ")</f>
+        <f t="shared" ref="O13:AF13" si="1">CONCATENATE(O2, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P13" t="str">
-        <f>CONCATENATE(P2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q13" t="str">
-        <f>CONCATENATE(Q2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R13" t="str">
-        <f>CONCATENATE(R2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S13" t="str">
-        <f>CONCATENATE(S2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T13" t="str">
-        <f>CONCATENATE(T2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U13" t="str">
-        <f>CONCATENATE(U2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V13" t="str">
-        <f>CONCATENATE(V2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="W13" t="str">
-        <f>CONCATENATE(W2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="X13" t="str">
-        <f>CONCATENATE(X2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="Y13" t="str">
-        <f>CONCATENATE(Y2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Z13" t="str">
-        <f>CONCATENATE(Z2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AA13" t="str">
-        <f>CONCATENATE(AA2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AB13" t="str">
-        <f>CONCATENATE(AB2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AC13" t="str">
-        <f>CONCATENATE(AC2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AD13" t="str">
-        <f>CONCATENATE(AD2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AE13" t="str">
-        <f>CONCATENATE(AE2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AF13" t="str">
-        <f>CONCATENATE(AF2, ", ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">0, </v>
       </c>
     </row>
@@ -1645,91 +1651,91 @@
         <v>1</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ref="K14:O14" si="1">CONCATENATE(K3, ", ")</f>
+        <f t="shared" ref="K14:N14" si="2">CONCATENATE(K3, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O14" t="str">
-        <f>CONCATENATE(O3, ", ")</f>
+        <f t="shared" ref="O14:AF14" si="3">CONCATENATE(O3, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P14" t="str">
-        <f>CONCATENATE(P3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q14" t="str">
-        <f>CONCATENATE(Q3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R14" t="str">
-        <f>CONCATENATE(R3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S14" t="str">
-        <f>CONCATENATE(S3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T14" t="str">
-        <f>CONCATENATE(T3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U14" t="str">
-        <f>CONCATENATE(U3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V14" t="str">
-        <f>CONCATENATE(V3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="W14" t="str">
-        <f>CONCATENATE(W3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="X14" t="str">
-        <f>CONCATENATE(X3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="Y14" t="str">
-        <f>CONCATENATE(Y3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Z14" t="str">
-        <f>CONCATENATE(Z3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AA14" t="str">
-        <f>CONCATENATE(AA3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AB14" t="str">
-        <f>CONCATENATE(AB3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AC14" t="str">
-        <f>CONCATENATE(AC3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AD14" t="str">
-        <f>CONCATENATE(AD3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AE14" t="str">
-        <f>CONCATENATE(AE3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AF14" t="str">
-        <f>CONCATENATE(AF3, ", ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">0, </v>
       </c>
     </row>
@@ -1741,91 +1747,91 @@
         <v>4</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15:O15" si="2">CONCATENATE(K4, ", ")</f>
+        <f t="shared" ref="K15:N15" si="4">CONCATENATE(K4, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="O15" t="str">
-        <f>CONCATENATE(O4, ", ")</f>
+        <f t="shared" ref="O15:AF15" si="5">CONCATENATE(O4, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P15" t="str">
-        <f>CONCATENATE(P4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q15" t="str">
-        <f>CONCATENATE(Q4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="R15" t="str">
-        <f>CONCATENATE(R4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="S15" t="str">
-        <f>CONCATENATE(S4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="T15" t="str">
-        <f>CONCATENATE(T4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="U15" t="str">
-        <f>CONCATENATE(U4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="V15" t="str">
-        <f>CONCATENATE(V4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="W15" t="str">
-        <f>CONCATENATE(W4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="X15" t="str">
-        <f>CONCATENATE(X4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Y15" t="str">
-        <f>CONCATENATE(Y4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Z15" t="str">
-        <f>CONCATENATE(Z4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AA15" t="str">
-        <f>CONCATENATE(AA4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AB15" t="str">
-        <f>CONCATENATE(AB4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AC15" t="str">
-        <f>CONCATENATE(AC4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AD15" t="str">
-        <f>CONCATENATE(AD4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AE15" t="str">
-        <f>CONCATENATE(AE4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AF15" t="str">
-        <f>CONCATENATE(AF4, ", ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">0, </v>
       </c>
     </row>
@@ -1837,91 +1843,91 @@
         <v>1</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" ref="K16:O16" si="3">CONCATENATE(K5, ", ")</f>
+        <f t="shared" ref="K16:N16" si="6">CONCATENATE(K5, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="O16" t="str">
-        <f>CONCATENATE(O5, ", ")</f>
+        <f t="shared" ref="O16:AF16" si="7">CONCATENATE(O5, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P16" t="str">
-        <f>CONCATENATE(P5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q16" t="str">
-        <f>CONCATENATE(Q5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="R16" t="str">
-        <f>CONCATENATE(R5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="S16" t="str">
-        <f>CONCATENATE(S5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="T16" t="str">
-        <f>CONCATENATE(T5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="U16" t="str">
-        <f>CONCATENATE(U5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="V16" t="str">
-        <f>CONCATENATE(V5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="W16" t="str">
-        <f>CONCATENATE(W5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="X16" t="str">
-        <f>CONCATENATE(X5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Y16" t="str">
-        <f>CONCATENATE(Y5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Z16" t="str">
-        <f>CONCATENATE(Z5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AA16" t="str">
-        <f>CONCATENATE(AA5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AB16" t="str">
-        <f>CONCATENATE(AB5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AC16" t="str">
-        <f>CONCATENATE(AC5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AD16" t="str">
-        <f>CONCATENATE(AD5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AE16" t="str">
-        <f>CONCATENATE(AE5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AF16" t="str">
-        <f>CONCATENATE(AF5, ", ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">0, </v>
       </c>
     </row>
@@ -1933,91 +1939,91 @@
         <v>4</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ref="K17:O17" si="4">CONCATENATE(K6, ", ")</f>
+        <f t="shared" ref="K17:N17" si="8">CONCATENATE(K6, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O17" t="str">
-        <f>CONCATENATE(O6, ", ")</f>
+        <f t="shared" ref="O17:AF17" si="9">CONCATENATE(O6, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="P17" t="str">
-        <f>CONCATENATE(P6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="Q17" t="str">
-        <f>CONCATENATE(Q6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R17" t="str">
-        <f>CONCATENATE(R6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S17" t="str">
-        <f>CONCATENATE(S6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T17" t="str">
-        <f>CONCATENATE(T6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U17" t="str">
-        <f>CONCATENATE(U6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V17" t="str">
-        <f>CONCATENATE(V6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="W17" t="str">
-        <f>CONCATENATE(W6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="X17" t="str">
-        <f>CONCATENATE(X6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Y17" t="str">
-        <f>CONCATENATE(Y6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="Z17" t="str">
-        <f>CONCATENATE(Z6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AA17" t="str">
-        <f>CONCATENATE(AA6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AB17" t="str">
-        <f>CONCATENATE(AB6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AC17" t="str">
-        <f>CONCATENATE(AC6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AD17" t="str">
-        <f>CONCATENATE(AD6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AE17" t="str">
-        <f>CONCATENATE(AE6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AF17" t="str">
-        <f>CONCATENATE(AF6, ", ")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">0, </v>
       </c>
     </row>
@@ -2029,91 +2035,91 @@
         <v>4</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18:O18" si="5">CONCATENATE(K7, ", ")</f>
+        <f t="shared" ref="K18:N18" si="10">CONCATENATE(K7, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O18" t="str">
-        <f>CONCATENATE(O7, ", ")</f>
+        <f t="shared" ref="O18:AF18" si="11">CONCATENATE(O7, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P18" t="str">
-        <f>CONCATENATE(P7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q18" t="str">
-        <f>CONCATENATE(Q7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R18" t="str">
-        <f>CONCATENATE(R7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S18" t="str">
-        <f>CONCATENATE(S7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T18" t="str">
-        <f>CONCATENATE(T7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U18" t="str">
-        <f>CONCATENATE(U7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V18" t="str">
-        <f>CONCATENATE(V7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="W18" t="str">
-        <f>CONCATENATE(W7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="X18" t="str">
-        <f>CONCATENATE(X7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Y18" t="str">
-        <f>CONCATENATE(Y7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Z18" t="str">
-        <f>CONCATENATE(Z7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AA18" t="str">
-        <f>CONCATENATE(AA7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AB18" t="str">
-        <f>CONCATENATE(AB7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AC18" t="str">
-        <f>CONCATENATE(AC7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AD18" t="str">
-        <f>CONCATENATE(AD7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AE18" t="str">
-        <f>CONCATENATE(AE7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AF18" t="str">
-        <f>CONCATENATE(AF7, ", ")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">1, </v>
       </c>
     </row>
@@ -2125,91 +2131,91 @@
         <v>4</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ref="K19:O19" si="6">CONCATENATE(K8, ", ")</f>
+        <f t="shared" ref="K19:N19" si="12">CONCATENATE(K8, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O19" t="str">
-        <f>CONCATENATE(O8, ", ")</f>
+        <f t="shared" ref="O19:AF19" si="13">CONCATENATE(O8, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P19" t="str">
-        <f>CONCATENATE(P8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q19" t="str">
-        <f>CONCATENATE(Q8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R19" t="str">
-        <f>CONCATENATE(R8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S19" t="str">
-        <f>CONCATENATE(S8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T19" t="str">
-        <f>CONCATENATE(T8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U19" t="str">
-        <f>CONCATENATE(U8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V19" t="str">
-        <f>CONCATENATE(V8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="W19" t="str">
-        <f>CONCATENATE(W8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="X19" t="str">
-        <f>CONCATENATE(X8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Y19" t="str">
-        <f>CONCATENATE(Y8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="Z19" t="str">
-        <f>CONCATENATE(Z8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AA19" t="str">
-        <f>CONCATENATE(AA8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AB19" t="str">
-        <f>CONCATENATE(AB8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AC19" t="str">
-        <f>CONCATENATE(AC8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AD19" t="str">
-        <f>CONCATENATE(AD8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AE19" t="str">
-        <f>CONCATENATE(AE8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AF19" t="str">
-        <f>CONCATENATE(AF8, ", ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">1, </v>
       </c>
     </row>
@@ -2221,91 +2227,91 @@
         <v>4</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" ref="K20:O20" si="7">CONCATENATE(K9, ", ")</f>
+        <f t="shared" ref="K20:N20" si="14">CONCATENATE(K9, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O20" t="str">
-        <f>CONCATENATE(O9, ", ")</f>
+        <f t="shared" ref="O20:AF20" si="15">CONCATENATE(O9, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P20" t="str">
-        <f>CONCATENATE(P9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q20" t="str">
-        <f>CONCATENATE(Q9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R20" t="str">
-        <f>CONCATENATE(R9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S20" t="str">
-        <f>CONCATENATE(S9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T20" t="str">
-        <f>CONCATENATE(T9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U20" t="str">
-        <f>CONCATENATE(U9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="V20" t="str">
-        <f>CONCATENATE(V9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="W20" t="str">
-        <f>CONCATENATE(W9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="X20" t="str">
-        <f>CONCATENATE(X9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Y20" t="str">
-        <f>CONCATENATE(Y9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="Z20" t="str">
-        <f>CONCATENATE(Z9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AA20" t="str">
-        <f>CONCATENATE(AA9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AB20" t="str">
-        <f>CONCATENATE(AB9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AC20" t="str">
-        <f>CONCATENATE(AC9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AD20" t="str">
-        <f>CONCATENATE(AD9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AE20" t="str">
-        <f>CONCATENATE(AE9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AF20" t="str">
-        <f>CONCATENATE(AF9, ", ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0, </v>
       </c>
     </row>
@@ -2317,87 +2323,87 @@
         <v xml:space="preserve">1, </v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:O21" si="8">CONCATENATE(L10, ", ")</f>
+        <f t="shared" ref="L21:N21" si="16">CONCATENATE(L10, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O21" t="str">
-        <f>CONCATENATE(O10, ", ")</f>
+        <f t="shared" ref="O21:AF21" si="17">CONCATENATE(O10, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P21" t="str">
-        <f>CONCATENATE(P10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q21" t="str">
-        <f>CONCATENATE(Q10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R21" t="str">
-        <f>CONCATENATE(R10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S21" t="str">
-        <f>CONCATENATE(S10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="T21" t="str">
-        <f>CONCATENATE(T10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="U21" t="str">
-        <f>CONCATENATE(U10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V21" t="str">
-        <f>CONCATENATE(V10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="W21" t="str">
-        <f>CONCATENATE(W10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="X21" t="str">
-        <f>CONCATENATE(X10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Y21" t="str">
-        <f>CONCATENATE(Y10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Z21" t="str">
-        <f>CONCATENATE(Z10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AA21" t="str">
-        <f>CONCATENATE(AA10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AB21" t="str">
-        <f>CONCATENATE(AB10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AC21" t="str">
-        <f>CONCATENATE(AC10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AD21" t="str">
-        <f>CONCATENATE(AD10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AE21" t="str">
-        <f>CONCATENATE(AE10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AF21" t="str">
-        <f>CONCATENATE(AF10, ", ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">1, </v>
       </c>
     </row>
@@ -2405,91 +2411,91 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="K22" t="str">
-        <f t="shared" ref="K22:O22" si="9">CONCATENATE(K11, ", ")</f>
+        <f t="shared" ref="K22:N22" si="18">CONCATENATE(K11, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O22" t="str">
-        <f>CONCATENATE(O11, ", ")</f>
+        <f t="shared" ref="O22:AF22" si="19">CONCATENATE(O11, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="P22" t="str">
-        <f>CONCATENATE(P11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="Q22" t="str">
-        <f>CONCATENATE(Q11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R22" t="str">
-        <f>CONCATENATE(R11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S22" t="str">
-        <f>CONCATENATE(S11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T22" t="str">
-        <f>CONCATENATE(T11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U22" t="str">
-        <f>CONCATENATE(U11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V22" t="str">
-        <f>CONCATENATE(V11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="W22" t="str">
-        <f>CONCATENATE(W11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="X22" t="str">
-        <f>CONCATENATE(X11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Y22" t="str">
-        <f>CONCATENATE(Y11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Z22" t="str">
-        <f>CONCATENATE(Z11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AA22" t="str">
-        <f>CONCATENATE(AA11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AB22" t="str">
-        <f>CONCATENATE(AB11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AC22" t="str">
-        <f>CONCATENATE(AC11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AD22" t="str">
-        <f>CONCATENATE(AD11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AE22" t="str">
-        <f>CONCATENATE(AE11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AF22" t="str">
-        <f>CONCATENATE(AF11, ", ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">1, </v>
       </c>
     </row>
@@ -2687,58 +2693,58 @@
         <v>4</v>
       </c>
       <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
         <v>6</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>7</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>8</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>9</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>10</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>11</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>12</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>13</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>14</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>15</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>16</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>17</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>18</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>19</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
+        <v>20</v>
+      </c>
+      <c r="AA29">
+        <v>21</v>
+      </c>
+      <c r="AB29">
         <v>22</v>
-      </c>
-      <c r="Z29">
-        <v>23</v>
-      </c>
-      <c r="AA29">
-        <v>5</v>
-      </c>
-      <c r="AB29">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
@@ -2769,79 +2775,79 @@
         <v>311-a,</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" ref="H32:K33" si="10">CONCATENATE(H27, ",")</f>
+        <f t="shared" ref="H32:J33" si="20">CONCATENATE(H27, ",")</f>
         <v>311-b,</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>334-a,</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>334-b,</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" ref="K32:O33" si="11">CONCATENATE(K27, ",")</f>
+        <f t="shared" ref="K32:O33" si="21">CONCATENATE(K27, ",")</f>
         <v>423-a,</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>423-b,</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>431-a,</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>431-b,</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>433-a,</v>
       </c>
       <c r="P32" t="str">
-        <f>P27</f>
+        <f t="shared" ref="P32:Z32" si="22">P27</f>
         <v>433-b</v>
       </c>
       <c r="Q32" t="str">
-        <f>Q27</f>
+        <f t="shared" si="22"/>
         <v>435-a</v>
       </c>
       <c r="R32" t="str">
-        <f>R27</f>
+        <f t="shared" si="22"/>
         <v>435-b</v>
       </c>
       <c r="S32" t="str">
-        <f>S27</f>
+        <f t="shared" si="22"/>
         <v>436-a</v>
       </c>
       <c r="T32" t="str">
-        <f>T27</f>
+        <f t="shared" si="22"/>
         <v>436-b</v>
       </c>
       <c r="U32" t="str">
-        <f>U27</f>
+        <f t="shared" si="22"/>
         <v>442-a</v>
       </c>
       <c r="V32" t="str">
-        <f>V27</f>
+        <f t="shared" si="22"/>
         <v>442-b</v>
       </c>
       <c r="W32" t="str">
-        <f>W27</f>
+        <f t="shared" si="22"/>
         <v>444-a</v>
       </c>
       <c r="X32" t="str">
-        <f>X27</f>
+        <f t="shared" si="22"/>
         <v>444-b</v>
       </c>
       <c r="Y32" t="str">
-        <f>Y27</f>
+        <f t="shared" si="22"/>
         <v>541-a</v>
       </c>
       <c r="Z32" t="str">
-        <f>Z27</f>
+        <f t="shared" si="22"/>
         <v>541-b</v>
       </c>
       <c r="AA32" t="str">
@@ -2865,75 +2871,75 @@
         <v>2,</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2,</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3,</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2,</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2,</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2,</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2,</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2,</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2,</v>
       </c>
       <c r="P33" t="str">
-        <f>CONCATENATE(P28, ",")</f>
+        <f t="shared" ref="P33:Y33" si="23">CONCATENATE(P28, ",")</f>
         <v>2,</v>
       </c>
       <c r="Q33" t="str">
-        <f>CONCATENATE(Q28, ",")</f>
+        <f t="shared" si="23"/>
         <v>2,</v>
       </c>
       <c r="R33" t="str">
-        <f>CONCATENATE(R28, ",")</f>
+        <f t="shared" si="23"/>
         <v>2,</v>
       </c>
       <c r="S33" t="str">
-        <f>CONCATENATE(S28, ",")</f>
+        <f t="shared" si="23"/>
         <v>2,</v>
       </c>
       <c r="T33" t="str">
-        <f>CONCATENATE(T28, ",")</f>
+        <f t="shared" si="23"/>
         <v>2,</v>
       </c>
       <c r="U33" t="str">
-        <f>CONCATENATE(U28, ",")</f>
+        <f t="shared" si="23"/>
         <v>2,</v>
       </c>
       <c r="V33" t="str">
-        <f>CONCATENATE(V28, ",")</f>
+        <f t="shared" si="23"/>
         <v>2,</v>
       </c>
       <c r="W33" t="str">
-        <f>CONCATENATE(W28, ",")</f>
+        <f t="shared" si="23"/>
         <v>2,</v>
       </c>
       <c r="X33" t="str">
-        <f>CONCATENATE(X28, ",")</f>
+        <f t="shared" si="23"/>
         <v>2,</v>
       </c>
       <c r="Y33" t="str">
-        <f>CONCATENATE(Y28, ",")</f>
+        <f t="shared" si="23"/>
         <v>2,</v>
       </c>
       <c r="Z33">
@@ -3054,87 +3060,87 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:Z37" si="12">IF(H34=1, 1, 0)</f>
+        <f t="shared" ref="H37:J37" si="24">IF(H34=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="J37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="K37">
-        <f>IF(K34=1, 1, 0)</f>
+        <f t="shared" ref="K37:AB37" si="25">IF(K34=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L37">
-        <f>IF(L34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f>IF(M34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="N37">
-        <f>IF(N34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O37">
-        <f>IF(O34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P37">
-        <f>IF(P34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f>IF(Q34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R37">
-        <f>IF(R34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S37">
-        <f>IF(S34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="T37">
-        <f>IF(T34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="U37">
-        <f>IF(U34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="V37">
-        <f>IF(V34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="W37">
-        <f>IF(W34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="X37">
-        <f>IF(X34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Y37">
-        <f>IF(Y34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Z37">
-        <f>IF(Z34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AA37">
-        <f>IF(AA34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB37">
-        <f>IF(AB34=1, 1, 0)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -3153,87 +3159,87 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:Z38" si="13">IF(H34=2,1,0)</f>
+        <f>IF(H34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H38:J38" si="26">IF(I34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f>IF(K34=2,1,0)</f>
+        <f t="shared" ref="K38:AB38" si="27">IF(K34=2,1,0)</f>
         <v>1</v>
       </c>
       <c r="L38">
-        <f>IF(L34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="M38">
-        <f>IF(M34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f>IF(N34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f>IF(O34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="P38">
-        <f>IF(P34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="Q38">
-        <f>IF(Q34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R38">
-        <f>IF(R34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="S38">
-        <f>IF(S34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T38">
-        <f>IF(T34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U38">
-        <f>IF(U34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V38">
-        <f>IF(V34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W38">
-        <f>IF(W34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X38">
-        <f>IF(X34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f>IF(Y34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z38">
-        <f>IF(Z34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA38">
-        <f>IF(AA34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AB38">
-        <f>IF(AB34=2,1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -3255,87 +3261,87 @@
         <v xml:space="preserve">1, </v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" ref="L40:AH40" si="14">CONCATENATE(H37, ", ")</f>
+        <f t="shared" ref="L40:AF40" si="28">CONCATENATE(H37, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="X40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="Y40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="Z40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AB40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AD40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AE40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AF40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">1, </v>
       </c>
     </row>
@@ -3351,87 +3357,87 @@
         <v xml:space="preserve">0, </v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" ref="L41" si="15">CONCATENATE(H38, ", ")</f>
+        <f t="shared" ref="L41" si="29">CONCATENATE(H38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" ref="M41" si="16">CONCATENATE(I38, ", ")</f>
+        <f t="shared" ref="M41" si="30">CONCATENATE(I38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" ref="N41" si="17">CONCATENATE(J38, ", ")</f>
+        <f t="shared" ref="N41" si="31">CONCATENATE(J38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" ref="O41" si="18">CONCATENATE(K38, ", ")</f>
+        <f t="shared" ref="O41" si="32">CONCATENATE(K38, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" ref="P41" si="19">CONCATENATE(L38, ", ")</f>
+        <f t="shared" ref="P41" si="33">CONCATENATE(L38, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" ref="Q41" si="20">CONCATENATE(M38, ", ")</f>
+        <f t="shared" ref="Q41" si="34">CONCATENATE(M38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" ref="R41" si="21">CONCATENATE(N38, ", ")</f>
+        <f t="shared" ref="R41" si="35">CONCATENATE(N38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" ref="S41" si="22">CONCATENATE(O38, ", ")</f>
+        <f t="shared" ref="S41" si="36">CONCATENATE(O38, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" ref="T41" si="23">CONCATENATE(P38, ", ")</f>
+        <f t="shared" ref="T41" si="37">CONCATENATE(P38, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" ref="U41" si="24">CONCATENATE(Q38, ", ")</f>
+        <f t="shared" ref="U41" si="38">CONCATENATE(Q38, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" ref="V41" si="25">CONCATENATE(R38, ", ")</f>
+        <f t="shared" ref="V41" si="39">CONCATENATE(R38, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" ref="W41" si="26">CONCATENATE(S38, ", ")</f>
+        <f t="shared" ref="W41" si="40">CONCATENATE(S38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="X41" t="str">
-        <f t="shared" ref="X41" si="27">CONCATENATE(T38, ", ")</f>
+        <f t="shared" ref="X41" si="41">CONCATENATE(T38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Y41" t="str">
-        <f t="shared" ref="Y41" si="28">CONCATENATE(U38, ", ")</f>
+        <f t="shared" ref="Y41" si="42">CONCATENATE(U38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="Z41" t="str">
-        <f t="shared" ref="Z41" si="29">CONCATENATE(V38, ", ")</f>
+        <f t="shared" ref="Z41" si="43">CONCATENATE(V38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AA41" t="str">
-        <f t="shared" ref="AA41" si="30">CONCATENATE(W38, ", ")</f>
+        <f t="shared" ref="AA41" si="44">CONCATENATE(W38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AB41" t="str">
-        <f t="shared" ref="AB41" si="31">CONCATENATE(X38, ", ")</f>
+        <f t="shared" ref="AB41" si="45">CONCATENATE(X38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AC41" t="str">
-        <f t="shared" ref="AC41" si="32">CONCATENATE(Y38, ", ")</f>
+        <f t="shared" ref="AC41" si="46">CONCATENATE(Y38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AD41" t="str">
-        <f t="shared" ref="AD41" si="33">CONCATENATE(Z38, ", ")</f>
+        <f t="shared" ref="AD41" si="47">CONCATENATE(Z38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
       <c r="AE41" t="str">
-        <f t="shared" ref="AE41" si="34">CONCATENATE(AA38, ", ")</f>
+        <f t="shared" ref="AE41" si="48">CONCATENATE(AA38, ", ")</f>
         <v xml:space="preserve">1, </v>
       </c>
       <c r="AF41" t="str">
-        <f t="shared" ref="AF41" si="35">CONCATENATE(AB38, ", ")</f>
+        <f t="shared" ref="AF41" si="49">CONCATENATE(AB38, ", ")</f>
         <v xml:space="preserve">0, </v>
       </c>
     </row>
@@ -3462,6 +3468,12 @@
       <c r="H43">
         <v>1</v>
       </c>
+      <c r="K43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="44" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
@@ -3476,6 +3488,12 @@
       <c r="H44">
         <v>0</v>
       </c>
+      <c r="K44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="45" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
@@ -3490,6 +3508,12 @@
       <c r="H45">
         <v>1</v>
       </c>
+      <c r="K45" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="46" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
@@ -3504,6 +3528,12 @@
       <c r="H46">
         <v>1</v>
       </c>
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="47" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
@@ -3518,6 +3548,12 @@
       <c r="H47">
         <v>0</v>
       </c>
+      <c r="K47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="48" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
@@ -3532,8 +3568,14 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>36</v>
       </c>
@@ -3546,8 +3588,14 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>26</v>
       </c>
@@ -3560,8 +3608,14 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>37</v>
       </c>
@@ -3574,24 +3628,42 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K52" t="s">
+        <v>46</v>
+      </c>
+      <c r="L52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>38</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>28</v>
       </c>
@@ -3605,8 +3677,14 @@
         <f>CONCATENATE(G40, ", ", H40, ", ")</f>
         <v xml:space="preserve">1, 0, </v>
       </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>39</v>
       </c>
@@ -3617,11 +3695,17 @@
         <v>3</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" ref="G55:G64" si="36">CONCATENATE(G41, ", ", H41, ", ")</f>
+        <f t="shared" ref="G55:G64" si="50">CONCATENATE(G41, ", ", H41, ", ")</f>
         <v xml:space="preserve">1, 0, </v>
       </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K55" t="s">
+        <v>45</v>
+      </c>
+      <c r="L55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>29</v>
       </c>
@@ -3632,11 +3716,17 @@
         <v>4</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>40</v>
       </c>
@@ -3647,11 +3737,17 @@
         <v>4</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K57" t="s">
+        <v>45</v>
+      </c>
+      <c r="L57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>30</v>
       </c>
@@ -3662,11 +3758,17 @@
         <v>4</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>41</v>
       </c>
@@ -3677,11 +3779,17 @@
         <v>4</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>31</v>
       </c>
@@ -3692,11 +3800,17 @@
         <v>4</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">0, 1, </v>
       </c>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K60" t="s">
+        <v>45</v>
+      </c>
+      <c r="L60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>42</v>
       </c>
@@ -3707,11 +3821,17 @@
         <v>4</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>32</v>
       </c>
@@ -3722,11 +3842,17 @@
         <v>4</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K62" t="s">
+        <v>45</v>
+      </c>
+      <c r="L62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>43</v>
       </c>
@@ -3737,11 +3863,17 @@
         <v>3</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">1, 0, </v>
       </c>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="K63" t="s">
+        <v>46</v>
+      </c>
+      <c r="L63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>33</v>
       </c>
@@ -3752,8 +3884,14 @@
         <v>4</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve">1, 0, </v>
+      </c>
+      <c r="K64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.3">

--- a/Project/MSCI 435 Data.xlsx
+++ b/Project/MSCI 435 Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefanno\Documents\MSCI 435\msci435\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB445C61-0566-40FE-90FA-D29330E88394}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAAE9F3-8350-4EEA-8E34-C49ABE72D498}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="9024" xr2:uid="{34626F64-5F57-4DCA-A3DE-04B964B15F09}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="9024" activeTab="1" xr2:uid="{34626F64-5F57-4DCA-A3DE-04B964B15F09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="69">
   <si>
     <t>Code</t>
   </si>
@@ -166,6 +167,72 @@
   </si>
   <si>
     <t xml:space="preserve">0, </t>
+  </si>
+  <si>
+    <t>I=3, j=8</t>
+  </si>
+  <si>
+    <t>I=6, j=2</t>
+  </si>
+  <si>
+    <t>I=2, j=14</t>
+  </si>
+  <si>
+    <t>I=3, j=7</t>
+  </si>
+  <si>
+    <t>I=5, j=17</t>
+  </si>
+  <si>
+    <t>I=2, j=13</t>
+  </si>
+  <si>
+    <t>I=9, j=22</t>
+  </si>
+  <si>
+    <t>I=1, j=19</t>
+  </si>
+  <si>
+    <t>I=7, j=16</t>
+  </si>
+  <si>
+    <t>I=7, j=15</t>
+  </si>
+  <si>
+    <t>I=4, j=3</t>
+  </si>
+  <si>
+    <t>I=5, j=18</t>
+  </si>
+  <si>
+    <t>I=6, j=1</t>
+  </si>
+  <si>
+    <t>I=1, j=20</t>
+  </si>
+  <si>
+    <t>I=4, j=4</t>
+  </si>
+  <si>
+    <t>I=4, j=12</t>
+  </si>
+  <si>
+    <t>I=4, j=11</t>
+  </si>
+  <si>
+    <t>I=5, j=5</t>
+  </si>
+  <si>
+    <t>I=6, j=21</t>
+  </si>
+  <si>
+    <t>I=5, j=6</t>
+  </si>
+  <si>
+    <t>I=3, j=9</t>
+  </si>
+  <si>
+    <t>I=3, j=10</t>
   </si>
 </sst>
 </file>
@@ -562,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E140EB0-1F40-4333-A8EF-D2C7472C4613}">
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA38" sqref="AA38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3163,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="H38:J38" si="26">IF(I34=2,1,0)</f>
+        <f t="shared" ref="I38:J38" si="26">IF(I34=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="J38">
@@ -3918,4 +3985,1189 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE8D6A0-65B5-4AE1-B980-AC99264E96F5}">
+  <dimension ref="A1:X32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>311</v>
+      </c>
+      <c r="D2">
+        <v>311</v>
+      </c>
+      <c r="E2">
+        <v>334</v>
+      </c>
+      <c r="F2">
+        <v>334</v>
+      </c>
+      <c r="G2">
+        <v>423</v>
+      </c>
+      <c r="H2">
+        <v>423</v>
+      </c>
+      <c r="I2">
+        <v>431</v>
+      </c>
+      <c r="J2">
+        <v>431</v>
+      </c>
+      <c r="K2">
+        <v>433</v>
+      </c>
+      <c r="L2">
+        <v>433</v>
+      </c>
+      <c r="M2">
+        <v>435</v>
+      </c>
+      <c r="N2">
+        <v>435</v>
+      </c>
+      <c r="O2">
+        <v>436</v>
+      </c>
+      <c r="P2">
+        <v>436</v>
+      </c>
+      <c r="Q2">
+        <v>442</v>
+      </c>
+      <c r="R2">
+        <v>442</v>
+      </c>
+      <c r="S2">
+        <v>444</v>
+      </c>
+      <c r="T2">
+        <v>444</v>
+      </c>
+      <c r="U2">
+        <v>541</v>
+      </c>
+      <c r="V2">
+        <v>541</v>
+      </c>
+      <c r="W2">
+        <v>402</v>
+      </c>
+      <c r="X2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project/MSCI 435 Data.xlsx
+++ b/Project/MSCI 435 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefanno\Documents\MSCI 435\msci435\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAAE9F3-8350-4EEA-8E34-C49ABE72D498}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2FD5B-E6FA-4389-B373-1804CFF43601}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="9024" activeTab="1" xr2:uid="{34626F64-5F57-4DCA-A3DE-04B964B15F09}"/>
   </bookViews>
@@ -3992,7 +3992,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Project/MSCI 435 Data.xlsx
+++ b/Project/MSCI 435 Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefanno\Documents\MSCI 435\msci435\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2FD5B-E6FA-4389-B373-1804CFF43601}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AB22D2-E683-4950-9A83-4E47939E7D73}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="9024" activeTab="1" xr2:uid="{34626F64-5F57-4DCA-A3DE-04B964B15F09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="78">
   <si>
     <t>Code</t>
   </si>
@@ -234,15 +235,80 @@
   <si>
     <t>I=3, j=10</t>
   </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Index (i)</t>
+  </si>
+  <si>
+    <t>Bookbinder</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Index (j)</t>
+  </si>
+  <si>
+    <t>...Course</t>
+  </si>
+  <si>
+    <t>...Index (j)</t>
+  </si>
+  <si>
+    <t>Course index j</t>
+  </si>
+  <si>
+    <t>i\j</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -276,15 +342,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E140EB0-1F40-4333-A8EF-D2C7472C4613}">
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:AF11"/>
+    <sheetView topLeftCell="E6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3992,7 +4171,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5170,4 +5349,2367 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC26377-1A9C-437C-8C0D-F1CE0AE413A0}">
+  <dimension ref="A2:AI45"/>
+  <sheetViews>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35:AI45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="14" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6">
+        <v>7</v>
+      </c>
+      <c r="L6" s="6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="6">
+        <v>9</v>
+      </c>
+      <c r="N6" s="6">
+        <v>10</v>
+      </c>
+      <c r="O6" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6">
+        <v>14</v>
+      </c>
+      <c r="H9" s="6">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6">
+        <v>16</v>
+      </c>
+      <c r="J9" s="6">
+        <v>17</v>
+      </c>
+      <c r="K9" s="6">
+        <v>18</v>
+      </c>
+      <c r="L9" s="6">
+        <v>19</v>
+      </c>
+      <c r="M9" s="6">
+        <v>20</v>
+      </c>
+      <c r="N9" s="6">
+        <v>21</v>
+      </c>
+      <c r="O9" s="6">
+        <v>22</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9">
+        <v>2</v>
+      </c>
+      <c r="O16" s="9">
+        <v>3</v>
+      </c>
+      <c r="P16" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>5</v>
+      </c>
+      <c r="R16" s="9">
+        <v>6</v>
+      </c>
+      <c r="S16" s="9">
+        <v>7</v>
+      </c>
+      <c r="T16" s="9">
+        <v>8</v>
+      </c>
+      <c r="U16" s="9">
+        <v>9</v>
+      </c>
+      <c r="V16" s="9">
+        <v>10</v>
+      </c>
+      <c r="W16" s="9">
+        <v>11</v>
+      </c>
+      <c r="X16" s="9">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>16</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>17</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>18</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>19</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>20</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>21</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="8:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="10">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
+        <v>1</v>
+      </c>
+      <c r="P17" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <v>1</v>
+      </c>
+      <c r="T17" s="10">
+        <v>1</v>
+      </c>
+      <c r="U17" s="10">
+        <v>0</v>
+      </c>
+      <c r="V17" s="10">
+        <v>0</v>
+      </c>
+      <c r="W17" s="10">
+        <v>0</v>
+      </c>
+      <c r="X17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="9">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>1</v>
+      </c>
+      <c r="R18" s="10">
+        <v>1</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
+        <v>1</v>
+      </c>
+      <c r="V18" s="10">
+        <v>1</v>
+      </c>
+      <c r="W18" s="10">
+        <v>1</v>
+      </c>
+      <c r="X18" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="9">
+        <v>3</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="9">
+        <v>4</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="9">
+        <v>5</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="9">
+        <v>6</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="12">
+        <v>1</v>
+      </c>
+      <c r="O22" s="12">
+        <v>2</v>
+      </c>
+      <c r="P22" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>4</v>
+      </c>
+      <c r="R22" s="12">
+        <v>5</v>
+      </c>
+      <c r="S22" s="12">
+        <v>6</v>
+      </c>
+      <c r="T22" s="12">
+        <v>7</v>
+      </c>
+      <c r="U22" s="12">
+        <v>8</v>
+      </c>
+      <c r="V22" s="12">
+        <v>9</v>
+      </c>
+      <c r="W22" s="12">
+        <v>10</v>
+      </c>
+      <c r="X22" s="12">
+        <v>11</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>13</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>14</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>15</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>16</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>17</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>18</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>19</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>20</v>
+      </c>
+      <c r="AH22" s="12">
+        <v>21</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="9">
+        <v>7</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0</v>
+      </c>
+      <c r="T23" s="14">
+        <v>0</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0</v>
+      </c>
+      <c r="V23" s="14">
+        <v>0</v>
+      </c>
+      <c r="W23" s="14">
+        <v>0</v>
+      </c>
+      <c r="X23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="9">
+        <v>8</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <v>0</v>
+      </c>
+      <c r="T24" s="14">
+        <v>0</v>
+      </c>
+      <c r="U24" s="14">
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
+        <v>0</v>
+      </c>
+      <c r="W24" s="14">
+        <v>0</v>
+      </c>
+      <c r="X24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="9">
+        <v>9</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>1</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0</v>
+      </c>
+      <c r="T25" s="14">
+        <v>1</v>
+      </c>
+      <c r="U25" s="14">
+        <v>1</v>
+      </c>
+      <c r="V25" s="14">
+        <v>1</v>
+      </c>
+      <c r="W25" s="14">
+        <v>1</v>
+      </c>
+      <c r="X25" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="9">
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>1</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <v>0</v>
+      </c>
+      <c r="T26" s="14">
+        <v>1</v>
+      </c>
+      <c r="U26" s="14">
+        <v>1</v>
+      </c>
+      <c r="V26" s="14">
+        <v>1</v>
+      </c>
+      <c r="W26" s="14">
+        <v>1</v>
+      </c>
+      <c r="X26" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H27" s="9">
+        <v>11</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>0</v>
+      </c>
+      <c r="R27" s="14">
+        <v>1</v>
+      </c>
+      <c r="S27" s="14">
+        <v>1</v>
+      </c>
+      <c r="T27" s="14">
+        <v>0</v>
+      </c>
+      <c r="U27" s="14">
+        <v>0</v>
+      </c>
+      <c r="V27" s="14">
+        <v>0</v>
+      </c>
+      <c r="W27" s="14">
+        <v>0</v>
+      </c>
+      <c r="X27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14">
+        <v>1</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1</v>
+      </c>
+      <c r="P28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0</v>
+      </c>
+      <c r="S28" s="14">
+        <v>0</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <v>0</v>
+      </c>
+      <c r="W28" s="14">
+        <v>0</v>
+      </c>
+      <c r="X28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="9">
+        <v>13</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>0</v>
+      </c>
+      <c r="R29" s="14">
+        <v>0</v>
+      </c>
+      <c r="S29" s="14">
+        <v>0</v>
+      </c>
+      <c r="T29" s="14">
+        <v>0</v>
+      </c>
+      <c r="U29" s="14">
+        <v>0</v>
+      </c>
+      <c r="V29" s="14">
+        <v>0</v>
+      </c>
+      <c r="W29" s="14">
+        <v>0</v>
+      </c>
+      <c r="X29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="9">
+        <v>14</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="14">
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
+        <v>0</v>
+      </c>
+      <c r="V30" s="14">
+        <v>0</v>
+      </c>
+      <c r="W30" s="14">
+        <v>0</v>
+      </c>
+      <c r="X30" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="9">
+        <v>15</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14">
+        <v>1</v>
+      </c>
+      <c r="O31" s="14">
+        <v>1</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <v>0</v>
+      </c>
+      <c r="S31" s="14">
+        <v>0</v>
+      </c>
+      <c r="T31" s="14">
+        <v>0</v>
+      </c>
+      <c r="U31" s="14">
+        <v>0</v>
+      </c>
+      <c r="V31" s="14">
+        <v>1</v>
+      </c>
+      <c r="W31" s="14">
+        <v>1</v>
+      </c>
+      <c r="X31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H32" s="9">
+        <v>16</v>
+      </c>
+      <c r="I32" s="10">
+        <v>1</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14">
+        <v>1</v>
+      </c>
+      <c r="O32" s="14">
+        <v>1</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>0</v>
+      </c>
+      <c r="R32" s="14">
+        <v>1</v>
+      </c>
+      <c r="S32" s="14">
+        <v>1</v>
+      </c>
+      <c r="T32" s="14">
+        <v>0</v>
+      </c>
+      <c r="U32" s="14">
+        <v>0</v>
+      </c>
+      <c r="V32" s="14">
+        <v>0</v>
+      </c>
+      <c r="W32" s="14">
+        <v>0</v>
+      </c>
+      <c r="X32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="9">
+        <v>17</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="9">
+        <v>18</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="9">
+        <v>19</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="17">
+        <v>1</v>
+      </c>
+      <c r="O35" s="17">
+        <v>2</v>
+      </c>
+      <c r="P35" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>4</v>
+      </c>
+      <c r="R35" s="17">
+        <v>5</v>
+      </c>
+      <c r="S35" s="17">
+        <v>6</v>
+      </c>
+      <c r="T35" s="17">
+        <v>7</v>
+      </c>
+      <c r="U35" s="17">
+        <v>8</v>
+      </c>
+      <c r="V35" s="17">
+        <v>9</v>
+      </c>
+      <c r="W35" s="17">
+        <v>10</v>
+      </c>
+      <c r="X35" s="17">
+        <v>11</v>
+      </c>
+      <c r="Y35" s="17">
+        <v>12</v>
+      </c>
+      <c r="Z35" s="17">
+        <v>13</v>
+      </c>
+      <c r="AA35" s="17">
+        <v>14</v>
+      </c>
+      <c r="AB35" s="17">
+        <v>15</v>
+      </c>
+      <c r="AC35" s="17">
+        <v>16</v>
+      </c>
+      <c r="AD35" s="17">
+        <v>17</v>
+      </c>
+      <c r="AE35" s="17">
+        <v>18</v>
+      </c>
+      <c r="AF35" s="17">
+        <v>19</v>
+      </c>
+      <c r="AG35" s="17">
+        <v>20</v>
+      </c>
+      <c r="AH35" s="17">
+        <v>21</v>
+      </c>
+      <c r="AI35" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H36" s="9">
+        <v>20</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
+        <v>1</v>
+      </c>
+      <c r="N36" s="19">
+        <v>0</v>
+      </c>
+      <c r="O36" s="19">
+        <v>0</v>
+      </c>
+      <c r="P36" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>0</v>
+      </c>
+      <c r="R36" s="19">
+        <v>0</v>
+      </c>
+      <c r="S36" s="19">
+        <v>0</v>
+      </c>
+      <c r="T36" s="19">
+        <v>0</v>
+      </c>
+      <c r="U36" s="19">
+        <v>0</v>
+      </c>
+      <c r="V36" s="19">
+        <v>0</v>
+      </c>
+      <c r="W36" s="19">
+        <v>0</v>
+      </c>
+      <c r="X36" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H37" s="9">
+        <v>21</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <v>1</v>
+      </c>
+      <c r="M37" s="18">
+        <v>2</v>
+      </c>
+      <c r="N37" s="19">
+        <v>0</v>
+      </c>
+      <c r="O37" s="19">
+        <v>0</v>
+      </c>
+      <c r="P37" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>0</v>
+      </c>
+      <c r="R37" s="19">
+        <v>0</v>
+      </c>
+      <c r="S37" s="19">
+        <v>0</v>
+      </c>
+      <c r="T37" s="19">
+        <v>0</v>
+      </c>
+      <c r="U37" s="19">
+        <v>0</v>
+      </c>
+      <c r="V37" s="19">
+        <v>0</v>
+      </c>
+      <c r="W37" s="19">
+        <v>0</v>
+      </c>
+      <c r="X37" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H38" s="9">
+        <v>22</v>
+      </c>
+      <c r="I38" s="10">
+        <v>1</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0</v>
+      </c>
+      <c r="M38" s="18">
+        <v>3</v>
+      </c>
+      <c r="N38" s="19">
+        <v>0</v>
+      </c>
+      <c r="O38" s="19">
+        <v>0</v>
+      </c>
+      <c r="P38" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>1</v>
+      </c>
+      <c r="R38" s="19">
+        <v>0</v>
+      </c>
+      <c r="S38" s="19">
+        <v>0</v>
+      </c>
+      <c r="T38" s="19">
+        <v>1</v>
+      </c>
+      <c r="U38" s="19">
+        <v>1</v>
+      </c>
+      <c r="V38" s="19">
+        <v>1</v>
+      </c>
+      <c r="W38" s="19">
+        <v>1</v>
+      </c>
+      <c r="X38" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M39" s="18">
+        <v>4</v>
+      </c>
+      <c r="N39" s="19">
+        <v>0</v>
+      </c>
+      <c r="O39" s="19">
+        <v>0</v>
+      </c>
+      <c r="P39" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>1</v>
+      </c>
+      <c r="R39" s="19">
+        <v>0</v>
+      </c>
+      <c r="S39" s="19">
+        <v>0</v>
+      </c>
+      <c r="T39" s="19">
+        <v>1</v>
+      </c>
+      <c r="U39" s="19">
+        <v>1</v>
+      </c>
+      <c r="V39" s="19">
+        <v>1</v>
+      </c>
+      <c r="W39" s="19">
+        <v>1</v>
+      </c>
+      <c r="X39" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M40" s="18">
+        <v>5</v>
+      </c>
+      <c r="N40" s="19">
+        <v>0</v>
+      </c>
+      <c r="O40" s="19">
+        <v>0</v>
+      </c>
+      <c r="P40" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>0</v>
+      </c>
+      <c r="R40" s="19">
+        <v>1</v>
+      </c>
+      <c r="S40" s="19">
+        <v>1</v>
+      </c>
+      <c r="T40" s="19">
+        <v>0</v>
+      </c>
+      <c r="U40" s="19">
+        <v>0</v>
+      </c>
+      <c r="V40" s="19">
+        <v>0</v>
+      </c>
+      <c r="W40" s="19">
+        <v>0</v>
+      </c>
+      <c r="X40" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M41" s="18">
+        <v>6</v>
+      </c>
+      <c r="N41" s="19">
+        <v>1</v>
+      </c>
+      <c r="O41" s="19">
+        <v>1</v>
+      </c>
+      <c r="P41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>0</v>
+      </c>
+      <c r="R41" s="19">
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <v>0</v>
+      </c>
+      <c r="T41" s="19">
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <v>0</v>
+      </c>
+      <c r="V41" s="19">
+        <v>0</v>
+      </c>
+      <c r="W41" s="19">
+        <v>0</v>
+      </c>
+      <c r="X41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M42" s="18">
+        <v>7</v>
+      </c>
+      <c r="N42" s="19">
+        <v>0</v>
+      </c>
+      <c r="O42" s="19">
+        <v>0</v>
+      </c>
+      <c r="P42" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>0</v>
+      </c>
+      <c r="R42" s="19">
+        <v>0</v>
+      </c>
+      <c r="S42" s="19">
+        <v>0</v>
+      </c>
+      <c r="T42" s="19">
+        <v>0</v>
+      </c>
+      <c r="U42" s="19">
+        <v>0</v>
+      </c>
+      <c r="V42" s="19">
+        <v>0</v>
+      </c>
+      <c r="W42" s="19">
+        <v>0</v>
+      </c>
+      <c r="X42" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M43" s="18">
+        <v>8</v>
+      </c>
+      <c r="N43" s="19">
+        <v>0</v>
+      </c>
+      <c r="O43" s="19">
+        <v>0</v>
+      </c>
+      <c r="P43" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>0</v>
+      </c>
+      <c r="R43" s="19">
+        <v>0</v>
+      </c>
+      <c r="S43" s="19">
+        <v>0</v>
+      </c>
+      <c r="T43" s="19">
+        <v>0</v>
+      </c>
+      <c r="U43" s="19">
+        <v>0</v>
+      </c>
+      <c r="V43" s="19">
+        <v>0</v>
+      </c>
+      <c r="W43" s="19">
+        <v>0</v>
+      </c>
+      <c r="X43" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M44" s="18">
+        <v>9</v>
+      </c>
+      <c r="N44" s="19">
+        <v>1</v>
+      </c>
+      <c r="O44" s="19">
+        <v>1</v>
+      </c>
+      <c r="P44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>0</v>
+      </c>
+      <c r="R44" s="19">
+        <v>0</v>
+      </c>
+      <c r="S44" s="19">
+        <v>0</v>
+      </c>
+      <c r="T44" s="19">
+        <v>0</v>
+      </c>
+      <c r="U44" s="19">
+        <v>0</v>
+      </c>
+      <c r="V44" s="19">
+        <v>1</v>
+      </c>
+      <c r="W44" s="19">
+        <v>1</v>
+      </c>
+      <c r="X44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="8:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M45" s="18">
+        <v>10</v>
+      </c>
+      <c r="N45" s="19">
+        <v>1</v>
+      </c>
+      <c r="O45" s="19">
+        <v>1</v>
+      </c>
+      <c r="P45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>0</v>
+      </c>
+      <c r="R45" s="19">
+        <v>1</v>
+      </c>
+      <c r="S45" s="19">
+        <v>1</v>
+      </c>
+      <c r="T45" s="19">
+        <v>0</v>
+      </c>
+      <c r="U45" s="19">
+        <v>0</v>
+      </c>
+      <c r="V45" s="19">
+        <v>0</v>
+      </c>
+      <c r="W45" s="19">
+        <v>0</v>
+      </c>
+      <c r="X45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>